--- a/data/CS1/case18_1/case18_1_2040.xlsx
+++ b/data/CS1/case18_1/case18_1_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560C0C4-57BE-4F59-9A07-734EC858A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66CD66D-A139-4743-81DC-A047973C40BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15019,8 +15019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,16 +15036,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -27528,8 +27528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1/case18_1/case18_1_2040.xlsx
+++ b/data/CS1/case18_1/case18_1_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66CD66D-A139-4743-81DC-A047973C40BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F87B742-5BBC-4633-9817-FE17F487E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,11 +15033,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS1/case18_1/case18_1_2040.xlsx
+++ b/data/CS1/case18_1/case18_1_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F87B742-5BBC-4633-9817-FE17F487E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F35FD-F452-4F51-B0C1-08FF56380DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,10 +15033,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS1/case18_1/case18_1_2040.xlsx
+++ b/data/CS1/case18_1/case18_1_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AF6F4-2E44-4B52-9B35-376687FB1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5082B2F-7570-4B7F-8D96-34CD0BBA701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25500" yWindow="4065" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,16 +15036,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15198,99 +15198,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>6.8719764982165102E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>5.0037950803418031E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>4.2089074304623386E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>5.6152968193539869E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>4.6927323832269371E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>3.9751428442427877E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>3.256782123749781E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>0.11268254494931734</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>0.12019923341838519</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>0.10107399606605603</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>0.11540337253353727</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>0.10832688881313689</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>0.10770512203755817</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>9.7157963400829966E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>5.7653967938005542E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>9.3003812255851082E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>0.11045016466025881</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>0.104077289081425</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>7.2026621315375502E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>7.3243670650998516E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>6.8220079790254587E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>4.3172362278651413E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>3.3756902798050326E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>3.4634164528079998E-2</v>
       </c>
     </row>
@@ -15299,99 +15299,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-0.28223134726370652</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-0.27663639525002121</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-0.28426962044636361</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-0.30323787000919245</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-0.3003258377804951</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-0.27562892087019497</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-0.17134355262785325</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-3.359588940520649E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-3.6103044494285245E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-2.2987466430939723E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-2.0249604000046988E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-9.2217013904209666E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-0.13337196079762184</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-0.17638750609219866</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-0.17159485322584528</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-0.17978450962754555</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-0.14135324639996732</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>4.5547833218863278E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-6.3550797908377959E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-7.5017276612508912E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-0.14186403340222944</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-0.18476270761939795</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-0.198586843072699</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-0.22737243680695038</v>
       </c>
     </row>
@@ -15400,99 +15400,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>-1.0040804729742849</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>-1.0409192446345661</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>-1.0600119918219186</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>-1.0458360646377518</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>-1.0894286047879922</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>-0.8740442523020503</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>-3.2546804382741532E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>0.46902085053713971</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>0.5860547455908659</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>0.41642475310897814</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>0.24345629589735432</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>0.48768715469344459</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>0.29846666913529013</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>9.146742949356082E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-0.36910389777987535</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>-0.3620205534329613</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>-0.30418190854418348</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>-0.14894028772334694</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>-0.37400644548122797</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>-0.20474164294511521</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>-0.29257279389834373</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>-0.47099330574669523</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>-0.74410445327261232</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>-0.83997345438563742</v>
       </c>
     </row>
@@ -15501,99 +15501,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
         <v>-2.641303809213138</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
         <v>-2.6410893325577307</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
         <v>-2.6947180055494813</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
         <v>-2.7452239621421923</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
         <v>-2.703378795402684</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
         <v>-2.4962792714816691</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
         <v>-2.1229011170348082</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
         <v>-1.9969364769446805</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
         <v>-1.9949642955029963</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
         <v>-2.2546912597841064</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
         <v>-2.4286838841501335</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
         <v>-2.4707389872924375</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
         <v>-2.4736619416771712</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
         <v>-2.5191477102904019</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
         <v>-2.6190902670338616</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
         <v>-2.5409606855207412</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
         <v>-2.0871876001221334</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
         <v>-1.2820600181529642</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
         <v>-1.6372860752159786</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
         <v>-2.0257647876845515</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
         <v>-2.1166449055732852</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
         <v>-2.2619450227143654</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
         <v>-2.4149834830640029</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
         <v>-2.378624301095829</v>
       </c>
     </row>
@@ -15602,99 +15602,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
         <v>-0.53353088323179709</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
         <v>-0.56605799258480161</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
         <v>-0.60799308597239343</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
         <v>-0.61016137555070282</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
         <v>-0.59090433655405994</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
         <v>-0.49808568450307794</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
         <v>-0.39109679985302992</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
         <v>-0.30719200878368025</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
         <v>-0.31089306576959497</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
         <v>-0.26042078967882137</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
         <v>-0.24761240917829025</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
         <v>-0.25229259309788793</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
         <v>-0.30066209422811335</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
         <v>-0.32354869853546375</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
         <v>-0.31796551178395094</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
         <v>-0.39028633036278171</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
         <v>-0.34919552814829069</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
         <v>-0.16819794594465728</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
         <v>-0.20730370406478249</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
         <v>-0.25269915120523967</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
         <v>-0.27832320302684666</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
         <v>-0.35775481162179446</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
         <v>-0.39173095443022726</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
         <v>-0.40160917982675393</v>
       </c>
     </row>
@@ -15703,99 +15703,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
         <v>4.2704154910568261E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
         <v>3.3735574989192857E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
         <v>2.5579043152514361E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
         <v>3.7359759617023723E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
         <v>3.0371672311367771E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
         <v>4.4198481867878441E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
         <v>5.7768858385321586E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
         <v>0.11596636895571842</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
         <v>0.1322323812199083</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
         <v>0.13488660832728139</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
         <v>0.1280293334255469</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
         <v>0.1351910067673544</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
         <v>0.13418647937984121</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
         <v>0.13804409159416309</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
         <v>0.11268811631208592</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
         <v>0.10935680146844577</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
         <v>9.3163326716530853E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
         <v>0.10294701813021979</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
         <v>8.8137327891153555E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
         <v>9.0152605109966852E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
         <v>7.7762045543084052E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
         <v>7.9425335901278357E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
         <v>5.0313923917452485E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
         <v>5.2703297376448015E-2</v>
       </c>
     </row>
@@ -15804,99 +15804,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
         <v>-0.64392481270178314</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
         <v>-0.63045080577713342</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
         <v>-0.66352952768735107</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
         <v>-0.66202531125709174</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
         <v>-0.72270156809739505</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
         <v>-0.64707712902003922</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
         <v>-0.53883908737498887</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
         <v>-0.28837541062724908</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
         <v>-0.13727966023463323</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
         <v>-0.12872615490359232</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
         <v>-9.784006050628391E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
         <v>-3.3212651604008971E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
         <v>-0.13349895567435047</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
         <v>-0.14212341812117463</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
         <v>-0.25647436603568519</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
         <v>-0.36651161360071016</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
         <v>-0.33078947020891247</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
         <v>-0.3689659434289404</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
         <v>-0.41906915718812693</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
         <v>-0.39835949072641103</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
         <v>-0.44451373068113675</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
         <v>-0.54540976670030572</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
         <v>-0.61535808608005105</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
         <v>-0.60608472800571156</v>
       </c>
     </row>
@@ -15905,99 +15905,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
         <v>-0.3739077075350431</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
         <v>-0.38559306359241813</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
         <v>-0.37653501437478576</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
         <v>-0.37975386946838907</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
         <v>-0.37560751441257212</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
         <v>-0.3462957290676521</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
         <v>-0.2755279350461593</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
         <v>-0.21274753706386451</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
         <v>-0.19843762493443681</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
         <v>-0.22663036516929866</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
         <v>-0.21186306064218055</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
         <v>-0.19507790206202041</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
         <v>-0.20885446983838826</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
         <v>-0.22388091880139785</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
         <v>-0.26929791853069002</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
         <v>-0.30167099625765265</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
         <v>-0.30087183254307714</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
         <v>-0.29966633822023186</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
         <v>-0.31273801338423807</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
         <v>-0.32983184337570393</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
         <v>-0.32890117865028695</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
         <v>-0.3351607715832407</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
         <v>-0.34979198600732514</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
         <v>-0.36369597961229638</v>
       </c>
     </row>
@@ -16006,99 +16006,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
         <v>-0.43427120679724546</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
         <v>-0.47978088082222708</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
         <v>-0.5002388543108941</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
         <v>-0.47516687093722959</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
         <v>-0.48664662271788611</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
         <v>-0.44425224105898953</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
         <v>-0.27083080890618816</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
         <v>-2.8675310410218244E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
         <v>1.5906490423299939E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
         <v>-8.9256607288735364E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
         <v>-1.3548250058719723E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
         <v>-6.5644985343363072E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
         <v>-5.848148017293775E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
         <v>-0.10495054060923736</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
         <v>-0.20586882828717215</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
         <v>-0.22786154932014299</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
         <v>-0.17907515899629062</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
         <v>-5.6459478192946611E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
         <v>-0.14487182578019633</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
         <v>-0.17049532953385527</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
         <v>-0.22319738445340895</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
         <v>-0.30091952940452937</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
         <v>-0.37361934087145859</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
         <v>-0.39738009065308977</v>
       </c>
     </row>
@@ -16107,99 +16107,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
         <v>-0.21979361019399937</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
         <v>-0.23305733638047224</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
         <v>-0.22653813358250494</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
         <v>-0.22361958653629901</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
         <v>-0.22754831747087859</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
         <v>-0.21698295034362949</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
         <v>-0.1578623918072917</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
         <v>-0.12754169819944794</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
         <v>-8.4727614472039248E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
         <v>-4.7960511913026638E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
         <v>-6.1357050942871923E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
         <v>-4.7368393320655171E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
         <v>-5.6484117835386212E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
         <v>-8.3345004289332822E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
         <v>-0.10212426075399976</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
         <v>-0.10746092774237648</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
         <v>-0.10940614113543966</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
         <v>-7.3102016980103171E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
         <v>-8.7686007819523293E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
         <v>-0.11203424285390057</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
         <v>-0.12783926152180949</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
         <v>-0.16929243962851315</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
         <v>-0.20745176496132353</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
         <v>-0.21114330019305436</v>
       </c>
     </row>
@@ -16208,99 +16208,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
         <v>-0.13760894527793804</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
         <v>-0.13753063268142812</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
         <v>-0.14005827686501221</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
         <v>-0.14274444028792507</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
         <v>-0.13813818754796681</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
         <v>-0.11148000417892651</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
         <v>-8.8038696038000422E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
         <v>-7.7890488068285885E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
         <v>-5.4665032514035691E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
         <v>-3.5355214287036175E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
         <v>-8.3046749998320873E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
         <v>-7.6777582774440439E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
         <v>-8.6532822211999205E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
         <v>-8.6355832251892958E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
         <v>-9.6079851145896719E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
         <v>-9.4247519871692595E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
         <v>-8.3555023977634396E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
         <v>-5.3685531242188153E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
         <v>-7.4835341360156654E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
         <v>-8.9666577100535952E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
         <v>-9.5387041101811801E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
         <v>-9.4780505223803074E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
         <v>-0.1033892720246109</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
         <v>-0.11298499059131513</v>
       </c>
     </row>
@@ -16309,99 +16309,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
         <v>-3.5658246232772972E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
         <v>5.8631602424872468E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
         <v>0.12530148924913867</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
         <v>0.11163210351710745</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
         <v>8.5946169761586075E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
         <v>-8.5723802019245648E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
         <v>-2.8301296967847304E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
         <v>0.10015866981396085</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
         <v>0.22182767018658908</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
         <v>0.26692067536160441</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
         <v>0.12457172895374584</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
         <v>-3.2365254030924392E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
         <v>0.41067949286125938</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
         <v>0.46099804474740641</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
         <v>0.42864268045035614</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
         <v>0.49708275396911916</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
         <v>0.2703551951810762</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
         <v>0.37719937458567171</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
         <v>0.41313024900174194</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
         <v>0.36828017949416836</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
         <v>0.40925889872219778</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
         <v>0.51495394523233251</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
         <v>0.48666365067352041</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
         <v>0.3310946124279831</v>
       </c>
     </row>
@@ -16410,99 +16410,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
         <v>3.5838841575479403E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
         <v>2.956496957415343E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
         <v>4.1368848351730748E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
         <v>5.1319596373566659E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
         <v>5.3589220879226372E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
         <v>6.533463329549756E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
         <v>0.23652527311519106</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
         <v>0.30817882968192023</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
         <v>0.32026545307476384</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
         <v>0.29955925815821599</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
         <v>0.27717993082678266</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
         <v>0.32401627444746239</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
         <v>0.36622586376848026</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
         <v>0.32160384045943025</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
         <v>0.30688602496235984</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
         <v>0.31255815757927169</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
         <v>0.28448682365462041</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
         <v>0.2853471029262204</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
         <v>0.2467390364080459</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
         <v>0.18626678924026352</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
         <v>0.21061120194219571</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
         <v>0.18222219488764391</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
         <v>8.0151539364069976E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
         <v>5.5572236286080913E-2</v>
       </c>
     </row>
@@ -16511,99 +16511,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
         <v>0.70868281894008844</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
         <v>0.71813686861785042</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
         <v>0.74160381642862094</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
         <v>0.73119658789947495</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
         <v>0.73991281820899057</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
         <v>0.71257746533218769</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
         <v>0.61900223923104281</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
         <v>0.49204919040883033</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
         <v>0.41021039937727483</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
         <v>0.3499266583533957</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
         <v>0.4598241411000849</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
         <v>0.44461825174550312</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
         <v>0.38740292741914389</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
         <v>0.33974651920750437</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
         <v>0.46223741798269652</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
         <v>0.5478465385916711</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
         <v>0.52531194217417498</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
         <v>0.5520768474453579</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
         <v>0.58792749606559258</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
         <v>0.63821125271972223</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
         <v>0.61636065919239957</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
         <v>0.66404297858391059</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
         <v>0.69402523179646747</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
         <v>0.68701576198055014</v>
       </c>
     </row>
@@ -16612,99 +16612,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
         <v>6.8719764982165102E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
         <v>5.0533376058897406E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
         <v>4.3377515354764924E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
         <v>5.4501410305494588E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
         <v>4.8349363948398755E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
         <v>3.8582268782356467E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
         <v>3.256782123749781E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
         <v>0.11493619584830374</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
         <v>0.11548553799021323</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
         <v>0.10309547598737717</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
         <v>0.11893612883558434</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
         <v>0.10723267781502441</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
         <v>0.10880415389508427</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
         <v>9.6176569831124617E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
         <v>5.9401057875520864E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
         <v>9.1180208093971635E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
         <v>0.11154373064699405</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
         <v>0.10101619234373602</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
         <v>7.2739756179884166E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
         <v>7.3243670650998516E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
         <v>6.7530988075201512E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
         <v>4.2744913147179625E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
         <v>3.3756902798050326E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
         <v>3.4987574370203264E-2</v>
       </c>
     </row>
@@ -17247,99 +17247,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>7.0823431257129338E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>4.8551675036979866E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>4.2948035004717743E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>5.6152968193539869E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>4.6453310460226251E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>3.8192548895665999E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>3.1600460210641439E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>0.11155571949982419</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>0.11784238570429922</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>0.10208473602671658</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>0.11775854340156863</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>0.11160952180747435</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>0.10880415389508427</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>9.9120750540240679E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>5.9401057875520864E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>9.1180208093971635E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>0.1071694667000531</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>0.10305692350219532</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>7.2026621315375502E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>7.4723340765160101E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>6.9598263220360751E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>4.1890014884236042E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>3.4779839246476089E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>3.4634164528079998E-2</v>
       </c>
     </row>
@@ -17348,99 +17348,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-0.27116345129258079</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-0.27387003129752108</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-0.27858422803743638</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-0.29729202942077687</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-0.29738146682186278</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-0.26481994358116773</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-0.16791668157529618</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-3.3266517940449568E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-3.5749093077674605E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-2.3691164382907266E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-2.1076118449028493E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-9.3139184043251763E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-0.13606634384403846</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-0.17289468418938284</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-0.16986157188012968</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-0.17449672993261775</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-0.14135324639996732</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>4.6458789883240544E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-6.4834652411577516E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-7.7290527418948582E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-0.1432686277923505</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-0.18291508054320393</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-0.198586843072699</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-0.23433281752553051</v>
       </c>
     </row>
@@ -17449,99 +17449,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>-0.98439262056302435</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>-1.072784119470318</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>-1.0600119918219186</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>-1.0671796577936243</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>-1.0894286047879922</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>-0.90080070900517428</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>-3.2546804382741532E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>0.46442260690442277</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>0.59777584050268306</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>0.40825956187154716</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>0.24586675427257568</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>0.48290590807880296</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>0.30751111365454131</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>9.3296778083432036E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-0.35462923512184102</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>-0.35478014236430211</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>-0.30418190854418348</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>-0.15345362977556959</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>-0.35933952605059161</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>-0.20474164294511521</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>-0.28970443317385008</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>-0.47099330574669523</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>-0.74410445327261232</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>-0.83148887403830762</v>
       </c>
     </row>
@@ -17550,99 +17550,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
         <v>-2.641303809213138</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
         <v>-2.6939111192088849</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
         <v>-2.6947180055494813</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
         <v>-2.6375681204895569</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
         <v>-2.703378795402684</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
         <v>-2.4962792714816691</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
         <v>-2.1657880082880365</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
         <v>-1.9186252425546932</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
         <v>-1.9748131410029661</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
         <v>-2.2546912597841064</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
         <v>-2.3572520052045407</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
         <v>-2.5211622319310592</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
         <v>-2.5241448384460927</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
         <v>-2.5191477102904019</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
         <v>-2.5931586802315461</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
         <v>-2.5409606855207412</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
         <v>-2.0871876001221334</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
         <v>-1.2947536816990328</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
         <v>-1.6536589359681384</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
         <v>-1.9463230313047646</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
         <v>-2.0952646540018374</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
         <v>-2.2393255724872216</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
         <v>-2.391072755508914</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
         <v>-2.4026508091877061</v>
       </c>
     </row>
@@ -17651,99 +17651,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
         <v>-0.53897507591783589</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
         <v>-0.56034023508394504</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
         <v>-0.58415021985582893</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
         <v>-0.61016137555070282</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
         <v>-0.59687306722632316</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
         <v>-0.50814802156374628</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
         <v>-0.39109679985302992</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
         <v>-0.31029495836735382</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
         <v>-0.30479712330352443</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
         <v>-0.25276135468826783</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
         <v>-0.25013906641480343</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
         <v>-0.25229259309788793</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
         <v>-0.30066209422811335</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
         <v>-0.32034524607471659</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
         <v>-0.31796551178395094</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
         <v>-0.37869366708467928</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
         <v>-0.33550158586796558</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
         <v>-0.17334686265724886</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
         <v>-0.19917414704263414</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
         <v>-0.25017215969318723</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
         <v>-0.27559454417364226</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
         <v>-0.36129693846953498</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
         <v>-0.39173095443022726</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
         <v>-0.41800139124825414</v>
       </c>
     </row>
@@ -17752,99 +17752,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
         <v>4.2704154910568261E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
         <v>3.3404834057926262E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
         <v>2.457594342104321E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
         <v>3.6612564424683247E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
         <v>3.129202601777286E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
         <v>4.3314512230520873E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
         <v>5.8947814678899577E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
         <v>0.11711455082656709</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
         <v>0.1322323812199083</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
         <v>0.13352411733407654</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
         <v>0.13061578460586101</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
         <v>0.1351910067673544</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
         <v>0.13418647937984121</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
         <v>0.13669071814716152</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
         <v>0.11610290771548247</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
         <v>0.10610857964265036</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
         <v>9.2222283012323492E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
         <v>0.10500595849282419</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
         <v>8.7264681080350071E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
         <v>9.2884502234511293E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
         <v>7.8531966786084886E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
         <v>7.9425335901278357E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
         <v>4.9307645439103438E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
         <v>5.0636501400901035E-2</v>
       </c>
     </row>
@@ -17853,99 +17853,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
         <v>-0.65042910373917495</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
         <v>-0.63688397726465518</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
         <v>-0.66352952768735107</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
         <v>-0.6687806715760416</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
         <v>-0.72270156809739505</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
         <v>-0.64707712902003922</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
         <v>-0.54428190643938268</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
         <v>-0.27989378090291828</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
         <v>-0.13868047309417031</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
         <v>-0.12872615490359232</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
         <v>-9.9816627385198739E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
         <v>-3.3544778120049065E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
         <v>-0.13215048137460958</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
         <v>-0.14071625556551942</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
         <v>-0.25390962237532838</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
         <v>-0.37017672973671734</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
         <v>-0.33078947020891247</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
         <v>-0.3726556028632298</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
         <v>-0.41906915718812693</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
         <v>-0.39039230091188282</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
         <v>-0.44904958507584231</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
         <v>-0.54540976670030572</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
         <v>-0.60932516366750156</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
         <v>-0.59408305022342023</v>
       </c>
     </row>
@@ -17954,99 +17954,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
         <v>-0.3739077075350431</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
         <v>-0.37047176698095075</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
         <v>-0.36900431408729006</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
         <v>-0.37599393016672189</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
         <v>-0.36456023457690828</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
         <v>-0.3462957290676521</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
         <v>-0.2755279350461593</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
         <v>-0.21489650208471162</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
         <v>-0.19645324868509245</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
         <v>-0.22209775786591268</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
         <v>-0.2161431224733357</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
         <v>-0.19702868108264063</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
         <v>-0.20471873776238061</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
         <v>-0.2194033004253699</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
         <v>-0.26657773753543051</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
         <v>-0.30167099625765265</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
         <v>-0.30087183254307714</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
         <v>-0.2937323513247817</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
         <v>-0.31273801338423807</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
         <v>-0.32013090680583034</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
         <v>-0.33219019043678988</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
         <v>-0.3351607715832407</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
         <v>-0.35332523839123753</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
         <v>-0.35649407902591429</v>
       </c>
     </row>
@@ -18055,99 +18055,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
         <v>-0.45199656217672485</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
         <v>-0.48453118657294214</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
         <v>-0.50519171425456644</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
         <v>-0.48971279555775699</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
         <v>-0.49161240458235433</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
         <v>-0.43118599867490159</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
         <v>-0.26286519687953558</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
         <v>-2.9845731243288369E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
         <v>1.6224620231765938E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
         <v>-9.1961352964151574E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
         <v>-1.3414108969029425E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
         <v>-6.6314832132581079E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
         <v>-5.7311850569479003E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
         <v>-0.10602146449300508</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
         <v>-0.20586882828717215</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
         <v>-0.21892580228798053</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
         <v>-0.18265666217621646</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
         <v>-5.6459478192946611E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
         <v>-0.14930667758979418</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
         <v>-0.16877315448805874</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
         <v>-0.23230748177803787</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
         <v>-0.30693791999261993</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
         <v>-0.38494113907968452</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
         <v>-0.40532769246615158</v>
       </c>
     </row>
@@ -18156,99 +18156,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
         <v>-0.22201374767070645</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
         <v>-0.22620270883987015</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
         <v>-0.22882639755808579</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
         <v>-0.22818325156765207</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
         <v>-0.22754831747087859</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
         <v>-0.21485566651673116</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
         <v>-0.15945696142150675</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
         <v>-0.13014458999943668</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
         <v>-8.2210952656038075E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
         <v>-4.9413860758875931E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
         <v>-6.1976819134214066E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
         <v>-4.6889924701254616E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
         <v>-5.7054664480188103E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
         <v>-8.251980622706219E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
         <v>-0.1052189353223028</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
         <v>-0.10852489732398417</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
         <v>-0.10940614113543966</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
         <v>-7.3102016980103171E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
         <v>-9.1265028546850785E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
         <v>-0.11092499292465402</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
         <v>-0.13175270830308938</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
         <v>-0.16431325022767451</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
         <v>-0.20537724731171025</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
         <v>-0.21325473319498492</v>
       </c>
     </row>
@@ -18257,99 +18257,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
         <v>-0.14038892397042163</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
         <v>-0.14174075409004327</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
         <v>-0.14148744295547153</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
         <v>-0.1456281663543478</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
         <v>-0.139547760890293</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
         <v>-0.11489265736807733</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
         <v>-8.4586198154157258E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
         <v>-7.866168101945703E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
         <v>-5.4665032514035691E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
         <v>-3.5712337663672905E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
         <v>-7.979001470426908E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
         <v>-7.600980694669604E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
         <v>-8.4802165767759216E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
         <v>-8.6355832251892958E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
         <v>-9.6079851145896719E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
         <v>-9.6170938644584286E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
         <v>-8.3555023977634396E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
         <v>-5.5876777415338683E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
         <v>-7.5583694773758217E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
         <v>-8.6150240743652212E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
         <v>-9.2553762653243124E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
         <v>-9.8649097273754205E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
         <v>-0.10234493594355422</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
         <v>-0.1107695986189364</v>
       </c>
     </row>
@@ -18358,99 +18358,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
         <v>-3.6371411157428431E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
         <v>6.0426447397062447E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
         <v>0.12909850407487014</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
         <v>0.10944323874226219</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
         <v>8.679712193744335E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
         <v>-8.4009325978860724E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
         <v>-2.8867322907204251E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
         <v>0.10424677878595927</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
         <v>0.22182767018658908</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
         <v>0.25645319789644344</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
         <v>0.12838514922784008</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
         <v>-3.2365254030924392E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
         <v>0.41067949286125938</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
         <v>0.4473050335172854</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
         <v>0.44163185258521548</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
         <v>0.5020535815088103</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
         <v>0.2703551951810762</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
         <v>0.38097136833152839</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
         <v>0.39692906276637951</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
         <v>0.35383781951400489</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
         <v>0.41331096702637793</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
         <v>0.5305586102393729</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
         <v>0.49148210266038694</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
         <v>0.32784858681594403</v>
       </c>
     </row>
@@ -18459,99 +18459,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
         <v>3.6197229991234189E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
         <v>2.8405559002617996E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
         <v>4.1782536835248046E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
         <v>5.1319596373566659E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
         <v>5.4671831402039038E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
         <v>6.5994579086361166E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
         <v>0.24376584270034998</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
         <v>0.29911474645598141</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
         <v>0.32350045765127655</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
         <v>0.29955925815821599</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
         <v>0.27717993082678266</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
         <v>0.31130975388089521</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
         <v>0.36622586376848026</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
         <v>0.32478803689962266</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
         <v>0.31001751501299607</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
         <v>0.30630699442768627</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
         <v>0.27603671998171092</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
         <v>0.2853471029262204</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
         <v>0.25429227221645545</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
         <v>0.18816747076312335</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
         <v>0.20644068309185518</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
         <v>0.18039997293876747</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
         <v>8.0151539364069976E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
         <v>5.7840490828369923E-2</v>
       </c>
     </row>
@@ -18560,99 +18560,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
         <v>0.72285647531889008</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
         <v>0.73264468414548367</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
         <v>0.71957598029707759</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
         <v>0.74596823613986829</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
         <v>0.73265877097164744</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
         <v>0.70552224290315613</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
         <v>0.63775988284410468</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
         <v>0.48707899656631692</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
         <v>0.39412371704875421</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
         <v>0.3499266583533957</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
         <v>0.45527142683176719</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
         <v>0.44461825174550312</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
         <v>0.39530910961137139</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
         <v>0.32965503843896465</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
         <v>0.45317393919872201</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
         <v>0.5478465385916711</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
         <v>0.53056506159591665</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
         <v>0.5520768474453579</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
         <v>0.57063551088719289</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
         <v>0.61944033352208328</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
         <v>0.63522884263706481</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
         <v>0.67081892734497084</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
         <v>0.71527090215758382</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
         <v>0.70103649181688776</v>
       </c>
     </row>
@@ -18661,99 +18661,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
         <v>6.9420987073819843E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
         <v>4.9542525547938643E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
         <v>4.2089074304623386E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
         <v>5.5051929601509689E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
         <v>4.8349363948398755E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
         <v>3.8971988669046935E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
         <v>3.1600460210641439E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
         <v>0.11042889405033103</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
         <v>0.11784238570429922</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
         <v>0.10309547598737717</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
         <v>0.12011371426960002</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
         <v>0.10832688881313689</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
         <v>0.10880415389508427</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
         <v>9.6176569831124617E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
         <v>5.8236331250510649E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
         <v>9.2092010174911351E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
         <v>0.11154373064699405</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
         <v>0.10305692350219532</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
         <v>7.1313486450866825E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
         <v>7.3983505708079308E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
         <v>6.8909171505307676E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
         <v>4.231746401570783E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
         <v>3.4097881614192249E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
         <v>3.5694394054449796E-2</v>
       </c>
     </row>
@@ -37008,99 +37008,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>5.3508199469932995E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>5.9699230813561613E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>5.5134573576870356E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>5.7384964335109957E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>5.5581703618354648E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>5.9389679246380174E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>5.9345457593925698E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>0.11115112344436083</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>0.13331354159946943</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>0.12452817331184404</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>0.12406630271954162</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>0.12259224763772529</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>0.13306295223556061</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>0.12652306118923554</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>8.868898075594954E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>0.11711858976724729</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>0.11860738539988178</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>0.1111634072367093</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>8.8087074930874545E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>7.8316546496901937E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>8.4699205001166664E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>8.1618429880170526E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>5.6913266708928725E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>5.699679649689833E-2</v>
       </c>
     </row>
@@ -37109,99 +37109,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>5.5925376830948488E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-3.4233109454095745E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-3.6718681757693453E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-5.4739080958776859E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-6.5613459787016826E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-5.0841251664498634E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-6.4963821571303801E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>0.16054537470056124</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>0.20901403462071652</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>0.27101211651159124</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>0.15252375499349588</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>0.13978519693755759</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>9.6993810119937948E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>0.12732909027975542</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>5.5925376830948482E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>4.8016737683137585E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>5.762008521976511E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>0.10269932836228722</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>0.1929425500667723</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>0.19376165912136695</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>0.15659105512665572</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>0.11902501917455401</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>5.6490279627220683E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>1.1185075366189698E-2</v>
       </c>
     </row>
@@ -37210,99 +37210,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-0.16170568504410435</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-0.38298714878866813</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-0.65499980784118617</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-0.60493612826096821</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-0.62362656863758292</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-0.59413071741823786</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-3.3375786386812038E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>0.69096221767297628</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>0.94470163367871474</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>0.92517679864242974</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>0.79576218692756617</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>0.95671691677796711</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>0.87561375585801393</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>0.77953321079697868</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>0.56596989765436512</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>0.3531992594384385</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>0.42541611723290296</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>0.37998332801385504</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>7.1632781532695325E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>0.30255150359645117</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>0.42520751856798539</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>0.28369418428790233</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-0.26546266097410626</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-0.54356640104221765</v>
       </c>
     </row>
@@ -37311,99 +37311,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
         <v>-2.4304531100794082</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
         <v>-2.4783610800377041</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
         <v>-2.4734534343346595</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
         <v>-2.5239320758516932</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
         <v>-2.556532865164777</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
         <v>-2.6259409972506988</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
         <v>-2.3589417012636105</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
         <v>-1.5917130896875817</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
         <v>-1.2273788205901013</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
         <v>-1.2853357793689177</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
         <v>-1.6241970302934507</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
         <v>-1.7820596337413974</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
         <v>-1.6195230820048363</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
         <v>-1.7938613531701479</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
         <v>-1.654227148047797</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
         <v>-1.9747431519395189</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
         <v>-2.2645279458336023</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
         <v>-2.0142380149783095</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
         <v>-1.3765946197041108</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
         <v>-1.2502811672043113</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
         <v>-1.2627839788763542</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
         <v>-1.6640424394538873</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
         <v>-2.0448523762687327</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
         <v>-2.1053800066062873</v>
       </c>
     </row>
@@ -37412,99 +37412,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
         <v>-0.338156325095336</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
         <v>-0.44775022319554064</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
         <v>-0.5274345849506793</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
         <v>-0.51337263875859596</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
         <v>-0.52364009153376778</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
         <v>-0.55611649107262673</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
         <v>-0.51605110469994508</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
         <v>-0.19887609614517782</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
         <v>6.56224155630553E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
         <v>0.22097344016130877</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
         <v>0.37565484827422474</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
         <v>0.38670352028229016</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
         <v>0.34224842583906395</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
         <v>0.27989969087099098</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
         <v>0.18786462505296445</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
         <v>0.12142378934116356</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
         <v>9.8433623344582971E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
         <v>9.3932312526482223E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
         <v>9.207226673387861E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
         <v>2.23205495112433E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
         <v>0.19322155693566284</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
         <v>9.4862335422784022E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
         <v>5.3122907836759069E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
         <v>-8.3478855172049962E-2</v>
       </c>
     </row>
@@ -37513,99 +37513,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
         <v>5.7983430698327385E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
         <v>6.4325368430956958E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
         <v>4.9417696617892665E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
         <v>5.6949319639471488E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
         <v>6.0079107091938033E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
         <v>5.9864048597397197E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
         <v>6.0207227046132558E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
         <v>0.11154672297694326</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
         <v>0.12662827187070014</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
         <v>0.12764865579160664</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
         <v>0.11045312765363989</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
         <v>0.12802386422889067</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
         <v>0.13340490230506119</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
         <v>0.12412078133860709</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
         <v>0.10913074669784631</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
         <v>9.5129065989443373E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
         <v>0.11479547895830472</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
         <v>0.11234289697800932</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
         <v>9.0777563259478944E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
         <v>8.4243445595557562E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
         <v>9.8206232746437153E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
         <v>7.5876755015389361E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
         <v>5.9507143010712416E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
         <v>6.5855944312316672E-2</v>
       </c>
     </row>
@@ -37614,99 +37614,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
         <v>-0.5955110964095619</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
         <v>-0.58827483895526189</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
         <v>-0.65002971791184572</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
         <v>-0.64065547530059352</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
         <v>-0.60036267811187682</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
         <v>-0.66857262763849001</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
         <v>-0.56171448489004672</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
         <v>-0.25902512478460643</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
         <v>-4.5678875180269495E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
         <v>-3.7003589254943778E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
         <v>7.655631465856147E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
         <v>2.5162440693361775E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
         <v>8.2230198344319522E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
         <v>-6.512631708870105E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
         <v>-0.11627350045886779</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
         <v>-0.16857190660585503</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
         <v>-0.21980132017436613</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
         <v>-0.19517337577024238</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
         <v>-0.22966894397568446</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
         <v>-0.16446039668863904</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
         <v>-0.31144687622911016</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
         <v>-0.38278157329280738</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
         <v>-0.42776149178715017</v>
       </c>
     </row>
@@ -37715,99 +37715,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
         <v>-0.35813797862512775</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
         <v>-0.37156617001475517</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
         <v>-0.36783238849251437</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
         <v>-0.36964437070183714</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
         <v>-0.36849739206428611</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
         <v>-0.35995606178465028</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
         <v>-0.31177075710710506</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
         <v>-0.25257933826922918</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
         <v>-0.24955936792035793</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
         <v>-0.24342791296961938</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
         <v>-0.24394039278639756</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
         <v>-0.23732696276987961</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
         <v>-0.24038963977014899</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
         <v>-0.24692985838427009</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
         <v>-0.2775932340881625</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
         <v>-0.28979513448764216</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
         <v>-0.29656108825915367</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
         <v>-0.29776907639870209</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
         <v>-0.30014234602640089</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
         <v>-0.32297210167382739</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
         <v>-0.34350790004615167</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
         <v>-0.34319065063576515</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
         <v>-0.36279910457772901</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
         <v>-0.3551485130272552</v>
       </c>
     </row>
@@ -37816,99 +37816,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
         <v>2.0594096340899572E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
         <v>-0.18040848682308455</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
         <v>-0.2228575425461633</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
         <v>-0.29420137629856541</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
         <v>-0.27591886220001172</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
         <v>-0.30891144511349372</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
         <v>-0.59292084516171584</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
         <v>-0.18912945619193489</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
         <v>-0.28831734877259407</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
         <v>-9.6456022657886817E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
         <v>8.4898111446157443E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
         <v>0.2731869922772393</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
         <v>0.27591886220001172</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
         <v>0.2228575425461633</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
         <v>0.48396126401114004</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
         <v>0.41188192681799163</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
         <v>0.37142923757693891</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
         <v>0.31080273967541311</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
         <v>0.29861439694304392</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
         <v>0.43510282116155685</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
         <v>0.38099078230664218</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
         <v>-4.2869343403505247E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
         <v>-6.2412720543338525E-2</v>
       </c>
     </row>
@@ -37917,99 +37917,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
         <v>-0.18461023382175723</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
         <v>-0.21019807088170311</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
         <v>-0.20616240530513447</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
         <v>-0.20822317070593549</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
         <v>-0.21036980133176986</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
         <v>-0.21895632383510741</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
         <v>-6.9379101826967396E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
         <v>6.2252288149197213E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
         <v>0.13601051645286674</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
         <v>0.14305146490560353</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
         <v>6.439891877503158E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
         <v>0.15241077443424145</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
         <v>0.16314392756341339</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
         <v>0.15983811639962839</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
         <v>0.12450457629839443</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
         <v>5.3129107989401056E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
         <v>2.6274758860212893E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
         <v>2.6017163185112768E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
         <v>2.7348074173130087E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
         <v>5.3129107989401056E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
         <v>8.1013839818989755E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
         <v>1.084048466046365E-2</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
         <v>-7.9940524506072558E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
         <v>-0.13463667285233274</v>
       </c>
     </row>
@@ -38018,99 +38018,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
         <v>-0.12391620270207063</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
         <v>-0.13579534315549957</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
         <v>-0.1391134728447774</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
         <v>-0.14002271122938378</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
         <v>-0.13655107376088668</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
         <v>-0.14051865943916911</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
         <v>-0.1076207615234107</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
         <v>-9.2104667531556217E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
         <v>-7.871406586735305E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
         <v>-5.8451039010410683E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
         <v>-5.9620059790618893E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
         <v>-6.3127122131243538E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
         <v>-7.5573060538712794E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
         <v>-7.6376024306936616E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
         <v>-8.5633724222928934E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
         <v>-8.5633724222928934E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
         <v>-9.0333423925180151E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
         <v>-6.7980329612713997E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
         <v>-6.2017142804581198E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
         <v>-6.9668915184125865E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
         <v>-5.7813391312115291E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
         <v>-7.1747174348940485E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
         <v>-8.3838864035134492E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
         <v>-9.7560097839194559E-2</v>
       </c>
     </row>
@@ -38119,99 +38119,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
         <v>-0.23210542985101237</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
         <v>-0.28390013205975884</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
         <v>-0.32371117204527938</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
         <v>-0.32161432538151463</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
         <v>-0.32032883026836356</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
         <v>-0.32724432314856616</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
         <v>-0.24611622815465187</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
         <v>7.4568544737157981E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
         <v>0.10310422899614979</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
         <v>0.15117052543178214</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
         <v>0.11670631049742826</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
         <v>0.15121646586450968</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
         <v>0.15841579688592547</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
         <v>0.13917142944665861</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
         <v>6.4222221009326105E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
         <v>4.1252078860226638E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
         <v>3.1434644332808098E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
         <v>3.790847929931019E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
         <v>3.314696352709192E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
         <v>3.5035706296853507E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
         <v>8.0279433034661743E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
         <v>1.2150729706910182E-3</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
         <v>-0.12763126930666938</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
         <v>-0.18949225675109321</v>
       </c>
     </row>
@@ -38220,99 +38220,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
         <v>8.4898111446157457E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
         <v>7.8833960628574756E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
         <v>5.8450008127888448E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
         <v>5.3001278556644611E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
         <v>4.8052891462099012E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
         <v>6.2772967126561247E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
         <v>0.20213836058608917</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
         <v>0.26429090304154462</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
         <v>0.34919401791246896</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
         <v>0.33302294906558189</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
         <v>0.3217202125169687</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
         <v>0.31136312324931503</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
         <v>0.34717263430660811</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
         <v>0.31521576031989151</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
         <v>0.28390432812811561</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
         <v>0.26380056741438029</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
         <v>0.26884401957949861</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
         <v>0.27238144088975513</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
         <v>0.22465377203750994</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
         <v>0.2071918196007414</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
         <v>0.21329599781645989</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
         <v>0.15413049994689298</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
         <v>6.7716350796339878E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
         <v>7.2049316644546627E-2</v>
       </c>
     </row>
@@ -38321,99 +38321,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
         <v>0.73224621122310785</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
         <v>0.69505075150536066</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
         <v>0.75557217748677996</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
         <v>0.76408300301541698</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
         <v>0.75651782476773954</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
         <v>0.73949617371046528</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
         <v>0.63973038556921991</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
         <v>0.62081743995002636</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
         <v>0.47282364047983733</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
         <v>0.3342863138192449</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
         <v>0.36612310561155398</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
         <v>0.43688904380336974</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
         <v>0.31836791792309044</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
         <v>0.43688904380336974</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
         <v>0.51443212084206302</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
         <v>0.4993017643467082</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
         <v>0.4993017643467082</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
         <v>0.48369858421087347</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
         <v>0.45706285246384271</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
         <v>0.56171448489004672</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
         <v>0.5989099446077939</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
         <v>0.69126816238152211</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
         <v>0.63673583584618088</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
         <v>0.63326846248266211</v>
       </c>
     </row>
@@ -38422,99 +38422,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
         <v>5.4589173196598305E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
         <v>6.0296223121697232E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
         <v>5.7384964335109957E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
         <v>5.6259768955990157E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
         <v>5.3930761926720354E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
         <v>5.9389679246380174E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
         <v>6.1143804793741617E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
         <v>0.11339660068566106</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
         <v>0.13069955058771512</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
         <v>0.12327031297536077</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
         <v>0.12406630271954162</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
         <v>0.12381817011410254</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
         <v>0.12914933599333828</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
         <v>0.12525783057734316</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
         <v>9.046276037106854E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
         <v>0.11711858976724729</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
         <v>0.11978171594839546</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
         <v>0.11006277944228642</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
         <v>8.8959224187615871E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
         <v>7.7525470269660515E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
         <v>8.3868820638410141E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
         <v>8.4116953243849199E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
         <v>5.7488148190837099E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
         <v>5.5856860566960362E-2</v>
       </c>
     </row>
@@ -39057,99 +39057,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>5.4048686333265657E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>6.0296223121697232E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>5.5697171266430263E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>5.7384964335109957E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>5.5581703618354648E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>5.8807427489062709E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>5.8746008527320377E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>0.11339660068566106</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>0.12808555957596082</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>0.12327031297536077</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>0.12283792348469466</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>0.12014040268497078</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>0.1317584134881532</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>0.12652306118923554</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>8.868898075594954E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>0.11827817976494279</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>0.11625872430285442</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>0.10786152385344071</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>8.7214925674133206E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>7.9898698951384808E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>8.3868820638410141E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>8.245127100139675E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>5.7488148190837099E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>5.699679649689833E-2</v>
       </c>
     </row>
@@ -39158,99 +39158,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>5.6490279627220696E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-3.4233109454095745E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-3.7453055392847316E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-5.312910798940107E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-6.6263098002729864E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-5.0841251664498634E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-6.3664545139877723E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>0.16218359280975064</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>0.20692389427450938</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>0.26564553994700529</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>0.14947327989362597</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>0.14116920878842451</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>9.6033475366275184E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>0.12992764314260757</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>5.5360474034676289E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>4.8016737683137585E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>5.5360474034676289E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>0.1037161533955772</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>0.19684037936105053</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>0.19376165912136695</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>0.16133623861534227</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>0.12266864221050974</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>5.7620085219765103E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>1.1411036484698579E-2</v>
       </c>
     </row>
@@ -39259,99 +39259,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-0.16170568504410435</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-0.37172282088311903</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-0.661549805919598</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-0.59283740569574894</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-0.61745204815602273</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-0.60001319976891354</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-3.3709544250680165E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>0.69801285254719025</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>0.92617807223403392</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>0.94386723901904468</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>0.77235741672381419</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>0.98600416933239476</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>0.89330292264302436</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>0.78725136139892893</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>0.54377499970713516</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>0.34281104592554323</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>0.43830751472480911</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>0.37614511257937161</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>7.0214310611255826E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>0.31181328431879146</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>0.44256292748912768</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>0.28653112613078136</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-0.26546266097410626</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-0.5328027099324707</v>
       </c>
     </row>
@@ -39360,99 +39360,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
         <v>-2.38184404787782</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
         <v>-2.4783610800377041</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
         <v>-2.5744107173687274</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
         <v>-2.4734534343346595</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
         <v>-2.6081799937539647</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
         <v>-2.705514966864357</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
         <v>-2.3589417012636105</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
         <v>-1.6404390005963854</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
         <v>-1.2395310861404982</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
         <v>-1.2724824215752284</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
         <v>-1.6079550599905161</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
         <v>-1.7644154789518787</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
         <v>-1.6358819010149861</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
         <v>-1.7405783426799455</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
         <v>-1.6709365131795932</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
         <v>-1.9747431519395189</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
         <v>-2.2201254370917671</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
         <v>-1.9549957204201238</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
         <v>-1.4183096081799926</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
         <v>-1.2252755438602247</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
         <v>-1.2752867905483973</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
         <v>-1.6640424394538873</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
         <v>-2.0448523762687327</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
         <v>-2.0841135418930925</v>
       </c>
     </row>
@@ -39461,99 +39461,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
         <v>-0.338156325095336</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
         <v>-0.44336051512499619</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
         <v>-0.51709273034380321</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
         <v>-0.50823891237100993</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
         <v>-0.51850636514618187</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
         <v>-0.55049915277896388</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
         <v>-0.51099178014406332</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
         <v>-0.19887609614517782</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
         <v>6.7631265019067202E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
         <v>0.2254375500635574</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
         <v>0.36828906693551444</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
         <v>0.39451571261122537</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
         <v>0.33882594158067331</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
         <v>0.28555423008050596</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
         <v>0.18414453346775722</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
         <v>0.11785250141936462</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
         <v>0.10044247280059486</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
         <v>9.1142243837576797E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
         <v>9.3932312526482223E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
         <v>2.2097344016130865E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
         <v>0.19519320547582267</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
         <v>9.3932312526482223E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
         <v>5.1560469370972029E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
         <v>-8.1023594725813192E-2</v>
       </c>
     </row>
@@ -39562,99 +39562,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
         <v>5.739773947915236E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
         <v>6.4975119627229239E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
         <v>5.0406050550250527E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
         <v>5.6949319639471488E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
         <v>5.8889421802988749E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
         <v>5.9864048597397197E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
         <v>5.961696011430774E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
         <v>0.10935953233033655</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
         <v>0.12286703607256055</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
         <v>0.12514574097216338</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
         <v>0.11154672297694324</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
         <v>0.12802386422889067</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
         <v>0.13748872584501201</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
         <v>0.12412078133860709</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
         <v>0.10913074669784631</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
         <v>9.4168166332984346E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
         <v>0.11948100871170493</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
         <v>0.11461245045231253</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
         <v>9.0777563259478944E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
         <v>8.1765697195688228E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
         <v>9.9178571684520697E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
         <v>7.6643186884231676E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
         <v>5.8340336285012173E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
         <v>6.5203905259719475E-2</v>
       </c>
     </row>
@@ -39663,99 +39663,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
         <v>-0.58383440824466848</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
         <v>-0.58827483895526189</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
         <v>-0.62453835642510658</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
         <v>-0.66680467837408708</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
         <v>-0.60648882788852854</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
         <v>-0.67519215860520776</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
         <v>-0.55604060120428855</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
         <v>-0.25643487353676042</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
         <v>-4.4322076907588215E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
         <v>-3.6263517469844901E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
         <v>7.733750154283249E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
         <v>2.4422368908262892E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
         <v>8.2230198344319522E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
         <v>-6.7099841848964739E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
         <v>-0.11742472323568827</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
         <v>-0.1702576256719136</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
         <v>-0.22202153552966272</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
         <v>-0.19130855644805936</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
         <v>-0.23669962593412375</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
         <v>-0.16446039668863904</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
         <v>-0.31453050866702215</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
         <v>-0.39059344213551767</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
         <v>-0.42776149178715017</v>
       </c>
     </row>
@@ -39764,99 +39764,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
         <v>-0.36544691696441606</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
         <v>-0.37524504298519828</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
         <v>-0.37154786716415594</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
         <v>-0.37711193374631863</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
         <v>-0.36481241814364329</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
         <v>-0.35995606178465028</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
         <v>-0.29954445290682641</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
         <v>-0.2551051316519215</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
         <v>-0.25203025275125257</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
         <v>-0.23855935471022699</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
         <v>-0.24394039278639756</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
         <v>-0.23258042351448199</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
         <v>-0.24767417430863839</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
         <v>-0.24944955081676268</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
         <v>-0.28314509876992572</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
         <v>-0.29269308583251857</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
         <v>-0.29955665480722593</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
         <v>-0.30077684484717382</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
         <v>-0.30320502302667035</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
         <v>-0.31347292221283246</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
         <v>-0.34350790004615167</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
         <v>-0.35369648687971716</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
         <v>-0.36279910457772901</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
         <v>-0.3660204062831916</v>
       </c>
     </row>
@@ -39865,99 +39865,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
         <v>2.1434671701752617E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
         <v>-0.17862226418127183</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
         <v>-0.22506405286840256</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
         <v>-0.29125936253557977</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
         <v>-0.270455122354467</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
         <v>-0.31521576031989151</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
         <v>-0.59890994460779368</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
         <v>-0.18723816163001555</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
         <v>-0.29420137629856541</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
         <v>-9.2673433534048125E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
         <v>8.2376385363598315E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
         <v>0.26772325243169454</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
         <v>0.270455122354467</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
         <v>0.22506405286840256</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
         <v>0.49877640474617496</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
         <v>0.4160848036222568</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
         <v>0.36039668596574265</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
         <v>0.30166148262613618</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
         <v>0.30470856830922849</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
         <v>0.4394107698859287</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
         <v>0.38487844335058752</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
         <v>-4.1188192681799157E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
         <v>-6.3673583584618096E-2</v>
       </c>
     </row>
@@ -39966,99 +39966,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
         <v>-0.18830243849819239</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
         <v>-0.20607654008010109</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
         <v>-0.21247349934508755</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
         <v>-0.21238763412005415</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
         <v>-0.21466306258343862</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
         <v>-0.21895632383510741</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
         <v>-6.9379101826967396E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
         <v>6.2252288149197213E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
         <v>0.13738436005340074</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
         <v>0.14743059138230569</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
         <v>6.568689715053222E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
         <v>0.14936255894555658</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
         <v>0.16151248828777925</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
         <v>0.15670403568591015</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
         <v>0.1232595305354105</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
         <v>5.3665765645859655E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
         <v>2.6017163185112768E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
         <v>2.5501971834912512E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
         <v>2.7348074173130087E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
         <v>5.2592450332942464E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
         <v>7.7836826492754835E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
         <v>1.084048466046365E-2</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
         <v>-8.3203403057340822E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
         <v>-0.13875820365393479</v>
       </c>
     </row>
@@ -40067,99 +40067,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
         <v>-0.12266452388689822</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
         <v>-0.13579534315549957</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
         <v>-0.1391134728447774</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
         <v>-0.14288031758100389</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
         <v>-0.1393378303682517</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
         <v>-0.14332903262795249</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
         <v>-0.11201344566722336</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
         <v>-9.3025714206871765E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
         <v>-7.637602430693663E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
         <v>-5.786062447495198E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
         <v>-5.901783696445103E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
         <v>-6.3127122131243538E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
         <v>-7.7084521749487045E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
         <v>-7.7934718680547563E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
         <v>-8.9128978272844411E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
         <v>-8.7381351247886666E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
         <v>-8.6790936712427991E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
         <v>-6.6634184471868182E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
         <v>-6.0789080570827103E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
         <v>-6.8972226032284603E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
         <v>-5.7246593358074936E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
         <v>-7.3211402396878039E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
         <v>-8.5515641315837179E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
         <v>-9.6603626291751468E-2</v>
       </c>
     </row>
@@ -40168,99 +40168,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
         <v>-0.22980735628813109</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
         <v>-0.28111679743172197</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
         <v>-0.31101661627879779</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
         <v>-0.32161432538151463</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
         <v>-0.31712554196567994</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
         <v>-0.33378920961153746</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
         <v>-0.25113900832107333</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
         <v>7.3830242314017807E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
         <v>0.10622859957179069</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
         <v>0.15268223068609998</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
         <v>0.1178851621186144</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
         <v>0.15275949102639241</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
         <v>0.15530960479012301</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
         <v>0.14054936439167504</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
         <v>6.2333332156110616E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
         <v>4.2935837181052219E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
         <v>3.2069687652662805E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
         <v>3.790847929931019E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
         <v>3.314696352709192E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
         <v>3.4005244346946052E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
         <v>7.8705326504570336E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
         <v>1.2150729706910182E-3</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
         <v>-0.13284070887020688</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
         <v>-0.18763448952804332</v>
       </c>
     </row>
@@ -40269,99 +40269,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
         <v>8.5738686807010508E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
         <v>7.8053426364925529E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
         <v>6.0221220495400227E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
         <v>5.4072011456778854E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
         <v>5.0014233970756113E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
         <v>6.0311282141205909E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
         <v>0.19809559337436738</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
         <v>0.27507828683915864</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
         <v>0.35265138442645388</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
         <v>0.33302294906558189</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
         <v>0.32493741464213832</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
         <v>0.31771747270338269</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
         <v>0.34373528149169125</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
         <v>0.30891144511349372</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
         <v>0.29549225988844685</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
         <v>0.27456793751292641</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
         <v>0.26085855365139471</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
         <v>0.27507828683915864</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
         <v>0.22465377203750994</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
         <v>0.2071918196007414</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
         <v>0.21329599781645989</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
         <v>0.15260445539296336</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
         <v>6.7716350796339878E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
         <v>7.0608330311655684E-2</v>
       </c>
     </row>
@@ -40370,99 +40370,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
         <v>0.73224621122310785</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
         <v>0.70214310611255826</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
         <v>0.75557217748677996</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
         <v>0.75651782476773954</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
         <v>0.75651782476773954</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
         <v>0.72499624873575041</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
         <v>0.63973038556921991</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
         <v>0.60852402529755067</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
         <v>0.46336716767024061</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
         <v>0.33759607930260377</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
         <v>0.36974808685523269</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
         <v>0.45012810573680512</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
         <v>0.31206360271669253</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
         <v>0.45012810573680512</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
         <v>0.50938866867694477</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
         <v>0.49425831218158994</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
         <v>0.51443212084206302</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
         <v>0.49835611706574839</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
         <v>0.44792159541456583</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
         <v>0.55604060120428855</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
         <v>0.586931745715638</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
         <v>0.69126816238152211</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
         <v>0.63673583584618088</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
         <v>0.63973038556921991</v>
       </c>
     </row>
@@ -40471,99 +40471,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
         <v>5.296771260660034E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
         <v>5.9699230813561613E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
         <v>5.7384964335109957E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
         <v>5.5134573576870356E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
         <v>5.6132017515566082E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
         <v>5.7642923974427808E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
         <v>6.0544355727136311E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
         <v>0.11002838482371072</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
         <v>0.12808555957596082</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
         <v>0.12704389398481059</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
         <v>0.12283792348469466</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
         <v>0.12014040268497078</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
         <v>0.13045387474074571</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
         <v>0.12778829180112786</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
         <v>8.6915201140830539E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
         <v>0.11827817976494279</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
         <v>0.1174330548513681</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
         <v>0.10896215164786356</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
         <v>8.8959224187615871E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
         <v>7.9107622724143373E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
         <v>8.1377667550140517E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
         <v>8.1618429880170526E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
         <v>5.8637911154653839E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
         <v>5.7566764461867308E-2</v>
       </c>
     </row>

--- a/data/CS1/case18_1/case18_1_2040.xlsx
+++ b/data/CS1/case18_1/case18_1_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5082B2F-7570-4B7F-8D96-34CD0BBA701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB4D53-BAA4-40ED-907A-3694C3DDFA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="4065" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,16 +15036,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
